--- a/data/outputs/social_change_age.xlsx
+++ b/data/outputs/social_change_age.xlsx
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.440519834084617</v>
+        <v>6.440498341558124</v>
       </c>
       <c r="D2" t="n">
-        <v>5.894259888515151</v>
+        <v>5.894548464308883</v>
       </c>
       <c r="E2" t="n">
-        <v>3.388040774914128</v>
+        <v>3.388156298034139</v>
       </c>
       <c r="F2" t="n">
-        <v>3.360851157629646</v>
+        <v>3.361004854260341</v>
       </c>
       <c r="G2" t="n">
-        <v>0.084816126592537</v>
+        <v>0.08476826610239623</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008025174161362236</v>
+        <v>0.0080136337835277</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04642065037694962</v>
+        <v>0.04639094994296196</v>
       </c>
     </row>
     <row r="3">
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.646865416771489</v>
+        <v>6.646780146532254</v>
       </c>
       <c r="D3" t="n">
-        <v>5.839367549609125</v>
+        <v>5.839637172685265</v>
       </c>
       <c r="E3" t="n">
-        <v>3.39433883312652</v>
+        <v>3.394314989257974</v>
       </c>
       <c r="F3" t="n">
-        <v>3.341235908644802</v>
+        <v>3.341263049803183</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1214855148300237</v>
+        <v>0.1214336800756214</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01564455615434385</v>
+        <v>0.01562964534013044</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0685650354921838</v>
+        <v>0.0685316627078759</v>
       </c>
     </row>
     <row r="4">
@@ -558,25 +558,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.672538649684327</v>
+        <v>6.671810449574726</v>
       </c>
       <c r="D4" t="n">
-        <v>5.73481351590731</v>
+        <v>5.735094037615047</v>
       </c>
       <c r="E4" t="n">
-        <v>3.549948875700543</v>
+        <v>3.550121506682867</v>
       </c>
       <c r="F4" t="n">
-        <v>3.334957267356865</v>
+        <v>3.335124526000877</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1405349872078119</v>
+        <v>0.1403991343937816</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0605618885993821</v>
+        <v>0.06056045695260655</v>
       </c>
       <c r="I4" t="n">
-        <v>0.100548437903597</v>
+        <v>0.1004797956731941</v>
       </c>
     </row>
     <row r="5">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.867586371282357</v>
+        <v>6.867288678457039</v>
       </c>
       <c r="D5" t="n">
-        <v>5.767723075464153</v>
+        <v>5.768185172239699</v>
       </c>
       <c r="E5" t="n">
-        <v>3.675233360198948</v>
+        <v>3.675184514691547</v>
       </c>
       <c r="F5" t="n">
-        <v>3.209608685490144</v>
+        <v>3.209833391588023</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1601528159030391</v>
+        <v>0.1600491194822306</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1266925468600988</v>
+        <v>0.1266197986096437</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1434226813815689</v>
+        <v>0.1433344590459372</v>
       </c>
     </row>
     <row r="6">
@@ -624,25 +624,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.105678682785946</v>
+        <v>7.105950564540737</v>
       </c>
       <c r="D6" t="n">
-        <v>6.358400841178078</v>
+        <v>6.358661695051898</v>
       </c>
       <c r="E6" t="n">
-        <v>3.467861647996244</v>
+        <v>3.468050045773573</v>
       </c>
       <c r="F6" t="n">
-        <v>3.323842889269479</v>
+        <v>3.323910779670126</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1051662867078702</v>
+        <v>0.1051638148480613</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04152955721575008</v>
+        <v>0.04156204904802495</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07334792196181014</v>
+        <v>0.07336293194804311</v>
       </c>
     </row>
     <row r="7">
@@ -657,25 +657,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.264675541804383</v>
+        <v>7.264416850765597</v>
       </c>
       <c r="D7" t="n">
-        <v>6.817390524402986</v>
+        <v>6.816871969232485</v>
       </c>
       <c r="E7" t="n">
-        <v>3.69094992955568</v>
+        <v>3.690713795992991</v>
       </c>
       <c r="F7" t="n">
-        <v>3.373680448119246</v>
+        <v>3.373251212307006</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06156985467933247</v>
+        <v>0.06160781941993668</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08595876061494745</v>
+        <v>0.08601658140781722</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07376430764713995</v>
+        <v>0.07381220041387695</v>
       </c>
     </row>
     <row r="8">
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.726622704418364</v>
+        <v>6.725709716113554</v>
       </c>
       <c r="D8" t="n">
-        <v>6.187719734776874</v>
+        <v>6.187610947725407</v>
       </c>
       <c r="E8" t="n">
-        <v>3.777439387011519</v>
+        <v>3.777422364387578</v>
       </c>
       <c r="F8" t="n">
-        <v>3.53306708354133</v>
+        <v>3.533105476512201</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08011493929747447</v>
+        <v>0.08000624337071262</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06469258098765211</v>
+        <v>0.06467820230502266</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07240376014256329</v>
+        <v>0.07234222283786765</v>
       </c>
     </row>
     <row r="9">
@@ -723,25 +723,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.725696092838549</v>
+        <v>6.725478396919002</v>
       </c>
       <c r="D9" t="n">
-        <v>5.835326801863538</v>
+        <v>5.835059723777527</v>
       </c>
       <c r="E9" t="n">
-        <v>3.466396790526741</v>
+        <v>3.46636177638705</v>
       </c>
       <c r="F9" t="n">
-        <v>3.563989837569788</v>
+        <v>3.563783128032848</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1323832178386808</v>
+        <v>0.1323948454803429</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02815403225324866</v>
+        <v>-0.02810478476581277</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05211459279271607</v>
+        <v>0.05214503035726505</v>
       </c>
     </row>
     <row r="10">
@@ -756,25 +756,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.01829110899912</v>
+        <v>5.963328226733053</v>
       </c>
       <c r="D10" t="n">
-        <v>4.945298902565578</v>
+        <v>5.081355150956442</v>
       </c>
       <c r="E10" t="n">
-        <v>3.4062770368519</v>
+        <v>3.431443891229414</v>
       </c>
       <c r="F10" t="n">
-        <v>3.124482087588011</v>
+        <v>3.126012728916624</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1782885186177024</v>
+        <v>0.147899468592523</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08272813579611993</v>
+        <v>0.08900951669163396</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1305083272069112</v>
+        <v>0.1184544926420785</v>
       </c>
     </row>
     <row r="11">
@@ -789,25 +789,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.07171024541251</v>
+        <v>7.290145985401459</v>
       </c>
       <c r="D11" t="n">
-        <v>5.372335926603029</v>
+        <v>5.744600021708456</v>
       </c>
       <c r="E11" t="n">
-        <v>3.524059489089372</v>
+        <v>3.944541415423674</v>
       </c>
       <c r="F11" t="n">
-        <v>2.937613972351304</v>
+        <v>3.239064365570389</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1151857204216711</v>
+        <v>0.2120048030297287</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1664119231113228</v>
+        <v>0.1788489397258644</v>
       </c>
       <c r="I11" t="n">
-        <v>0.140798821766497</v>
+        <v>0.1954268713777965</v>
       </c>
     </row>
     <row r="12">
@@ -822,25 +822,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.887247308928934</v>
+        <v>8.784181989627532</v>
       </c>
       <c r="D12" t="n">
-        <v>7.615985120701289</v>
+        <v>7.51093585490375</v>
       </c>
       <c r="E12" t="n">
-        <v>4.102749406182414</v>
+        <v>3.978429985855729</v>
       </c>
       <c r="F12" t="n">
-        <v>3.443777305409324</v>
+        <v>3.517253024493931</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1430434131106512</v>
+        <v>0.1449476042535601</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1606171948450198</v>
+        <v>0.1159193357684797</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1518303039778355</v>
+        <v>0.1304334700110199</v>
       </c>
     </row>
     <row r="13">
@@ -855,25 +855,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.454084305967317</v>
+        <v>8.489958352614529</v>
       </c>
       <c r="D13" t="n">
-        <v>7.480749877637381</v>
+        <v>7.360213306829258</v>
       </c>
       <c r="E13" t="n">
-        <v>3.952631587932429</v>
+        <v>3.969042110134197</v>
       </c>
       <c r="F13" t="n">
-        <v>3.648083652711233</v>
+        <v>3.677497658594391</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1151318573488684</v>
+        <v>0.1330683848922957</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07704941086616714</v>
+        <v>0.07345461283854915</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09609063410751778</v>
+        <v>0.1032614988654224</v>
       </c>
     </row>
     <row r="14">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.815083499102855</v>
+        <v>6.814579071000986</v>
       </c>
       <c r="D14" t="n">
-        <v>6.109247177347311</v>
+        <v>6.108866046486397</v>
       </c>
       <c r="E14" t="n">
-        <v>3.423048650518155</v>
+        <v>3.422899143744791</v>
       </c>
       <c r="F14" t="n">
-        <v>3.386272604607413</v>
+        <v>3.385967291367199</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1035697246920688</v>
+        <v>0.1035592979642288</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01074365271004113</v>
+        <v>0.01078964083563023</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05715668870105498</v>
+        <v>0.05717446939992954</v>
       </c>
     </row>
     <row r="15">
@@ -921,25 +921,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.743610226845738</v>
+        <v>6.744427219757311</v>
       </c>
       <c r="D15" t="n">
-        <v>5.762706833150951</v>
+        <v>5.7622137807323</v>
       </c>
       <c r="E15" t="n">
-        <v>3.732943979434072</v>
+        <v>3.733308387234725</v>
       </c>
       <c r="F15" t="n">
-        <v>3.40751521378748</v>
+        <v>3.407565685343464</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1454567154237197</v>
+        <v>0.1456333365341519</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0871775112188875</v>
+        <v>0.08725309245951157</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1163171133213036</v>
+        <v>0.1164432144968317</v>
       </c>
     </row>
     <row r="16">
@@ -1020,25 +1020,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.523353453475083</v>
+        <v>7.523035634411809</v>
       </c>
       <c r="D18" t="n">
-        <v>6.887212856396793</v>
+        <v>6.88733495014821</v>
       </c>
       <c r="E18" t="n">
-        <v>3.411851535155844</v>
+        <v>3.411510362308036</v>
       </c>
       <c r="F18" t="n">
-        <v>3.346439015298881</v>
+        <v>3.346537321476692</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08455545801645845</v>
+        <v>0.08450055471700579</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01917214720012008</v>
+        <v>0.01904524211598383</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05186380260828926</v>
+        <v>0.05177289841649481</v>
       </c>
     </row>
     <row r="19">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.376990345929793</v>
+        <v>7.377026655674637</v>
       </c>
       <c r="D19" t="n">
-        <v>6.861071003356901</v>
+        <v>6.861553238199781</v>
       </c>
       <c r="E19" t="n">
-        <v>3.592520857826689</v>
+        <v>3.592287258404324</v>
       </c>
       <c r="F19" t="n">
-        <v>3.313594872860913</v>
+        <v>3.31374862788145</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06993629086929024</v>
+        <v>0.06987549883371202</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07764074197596003</v>
+        <v>0.07753796132846001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07378851642262513</v>
+        <v>0.07370673008108602</v>
       </c>
     </row>
     <row r="20">
@@ -1086,25 +1086,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.032071172373222</v>
+        <v>7.032378913567032</v>
       </c>
       <c r="D20" t="n">
-        <v>6.006459496276253</v>
+        <v>6.006604775760934</v>
       </c>
       <c r="E20" t="n">
-        <v>3.23470304663575</v>
+        <v>3.234501828561235</v>
       </c>
       <c r="F20" t="n">
-        <v>3.048488711156953</v>
+        <v>3.048612073345343</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1458477383059306</v>
+        <v>0.1458644578760042</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05756767554674589</v>
+        <v>0.05747090744375283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1017077069263382</v>
+        <v>0.1016676826598785</v>
       </c>
     </row>
     <row r="21">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.21280559794822</v>
+        <v>7.213304941625671</v>
       </c>
       <c r="D21" t="n">
-        <v>6.040782949447774</v>
+        <v>6.040967399691358</v>
       </c>
       <c r="E21" t="n">
-        <v>3.389362847367144</v>
+        <v>3.389896468169469</v>
       </c>
       <c r="F21" t="n">
-        <v>3.06922354709051</v>
+        <v>3.069347993827161</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1624919225375829</v>
+        <v>0.1625243285042794</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0944541244751407</v>
+        <v>0.09455995997287867</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1284730235063618</v>
+        <v>0.128542144238579</v>
       </c>
     </row>
   </sheetData>
